--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail15 Features.xlsx
@@ -5547,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,29 +5558,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5601,115 +5599,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5726,72 +5714,66 @@
         <v>1.817352134609243e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2993521163370187</v>
+        <v>5.734567258857105e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.296578028000819</v>
+        <v>6.233815603621744e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.734567258857105e-08</v>
+        <v>0.01303840459256386</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.233815603621744e-07</v>
+        <v>0.1595574312286816</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01303840459256386</v>
+        <v>0.0256241089658801</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1595574312286816</v>
+        <v>1.933379837372702</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0256241089658801</v>
+        <v>2.122913170528831</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.955916653158499</v>
+        <v>4.390628736348823</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.122913170528831</v>
+        <v>1.035588802096028e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.390628736348823</v>
+        <v>4121398667.046515</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.035588802096028e-17</v>
+        <v>2.928578857834784e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4121398667.046515</v>
+        <v>175.9043576618295</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.928578857834784e-08</v>
+        <v>0.0001911083483771711</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>175.9043576618295</v>
+        <v>13.23867375273102</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001911083483771711</v>
+        <v>0.9935084350971982</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.23867375273102</v>
+        <v>0.03349412360725151</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9935084350971982</v>
+        <v>2.921351252010839</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03349412360725151</v>
+        <v>0.9549044300129039</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.921351252010839</v>
+        <v>1.036842769215386</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9549044300129039</v>
+        <v>46</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.036842769215386</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.445512810792968</v>
       </c>
     </row>
@@ -5806,72 +5788,66 @@
         <v>1.791351549173369e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3061160453707037</v>
+        <v>5.734567258857105e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.277054707159153</v>
+        <v>6.236743427703245e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.734567258857105e-08</v>
+        <v>0.01952709197757725</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.236743427703245e-07</v>
+        <v>0.1640476801494875</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01952709197757725</v>
+        <v>0.02728643684136708</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1640476801494875</v>
+        <v>1.928659583144941</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02728643684136708</v>
+        <v>1.922121624212639</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.948507422177948</v>
+        <v>4.578890048271045</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.922121624212639</v>
+        <v>1.88726524149192e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.578890048271045</v>
+        <v>2241734385.822159</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.88726524149192e-17</v>
+        <v>5.381707209594858e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2241734385.822159</v>
+        <v>94.84211895208631</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.381707209594858e-08</v>
+        <v>0.0001918028521855106</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>94.84211895208631</v>
+        <v>12.98183729557262</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001918028521855106</v>
+        <v>1.010369259826115</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.98183729557262</v>
+        <v>0.03232417017068424</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.010369259826115</v>
+        <v>2.907134915459165</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03232417017068424</v>
+        <v>0.9538773556315211</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.907134915459165</v>
+        <v>1.182429242584358</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9538773556315211</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.182429242584358</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.270005564261778</v>
       </c>
     </row>
@@ -5886,72 +5862,66 @@
         <v>1.758191455508595e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3107512181641476</v>
+        <v>5.734567258857105e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.261910385114037</v>
+        <v>6.240848716918342e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.734567258857105e-08</v>
+        <v>0.02701876599938043</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.240848716918342e-07</v>
+        <v>0.1728181283671438</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02701876599938043</v>
+        <v>0.03058381544486792</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1728181283671438</v>
+        <v>1.919035406265223</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03058381544486792</v>
+        <v>1.765961476923615</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.936884132407173</v>
+        <v>4.406817144715512</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.765961476923615</v>
+        <v>3.705960027339031e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.406817144715512</v>
+        <v>1090639314.65288</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.705960027339031e-17</v>
+        <v>1.099652770964669e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1090639314.65288</v>
+        <v>44.08217641709093</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.099652770964669e-07</v>
+        <v>0.0002210185169739419</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>44.08217641709093</v>
+        <v>13.44999656408639</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002210185169739419</v>
+        <v>1.12698575342707</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.44999656408639</v>
+        <v>0.03998278183900685</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.12698575342707</v>
+        <v>2.894867319294113</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03998278183900685</v>
+        <v>0.9521666680326889</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.894867319294113</v>
+        <v>1.290209276296966</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9521666680326889</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.290209276296966</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.051455116704649</v>
       </c>
     </row>
@@ -5966,72 +5936,66 @@
         <v>1.723181652164148e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3025297020212659</v>
+        <v>5.718036388333559e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.26676572043169</v>
+        <v>6.246319843430042e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.718036388333559e-08</v>
+        <v>0.03630553164727025</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.246319843430042e-07</v>
+        <v>0.1876533276308867</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03630553164727025</v>
+        <v>0.03650712508383476</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1876533276308867</v>
+        <v>1.906165285325446</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03650712508383476</v>
+        <v>1.642878721545111</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.916804149749853</v>
+        <v>4.245440235831293</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.642878721545111</v>
+        <v>7.216218614412858e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.245440235831293</v>
+        <v>563428929.2423233</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.216218614412858e-17</v>
+        <v>2.120863726279702e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>563428929.2423233</v>
+        <v>22.908041739616</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.120863726279702e-07</v>
+        <v>0.0002522615134352759</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>22.908041739616</v>
+        <v>13.3042949344141</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002522615134352759</v>
+        <v>1.186485185578348</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.3042949344141</v>
+        <v>0.04465136344593206</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.186485185578348</v>
+        <v>2.550665538424663</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.04465136344593206</v>
+        <v>0.952837033637576</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.550665538424663</v>
+        <v>1.379581626652753</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.952837033637576</v>
+        <v>24</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.379581626652753</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5601617501551426</v>
       </c>
     </row>
@@ -6046,72 +6010,66 @@
         <v>1.69784101762685e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2743454538618969</v>
+        <v>5.601347520416082e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.314081557683189</v>
+        <v>6.253475789621383e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.601347520416082e-08</v>
+        <v>0.04792140022851769</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.253475789621383e-07</v>
+        <v>0.2103869793683693</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04792140022851769</v>
+        <v>0.0465140117823152</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2103869793683693</v>
+        <v>1.890809019696159</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0465140117823152</v>
+        <v>1.627352134431803</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.88787105254122</v>
+        <v>3.633484573377063</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.627352134431803</v>
+        <v>1.134054025083798e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.633484573377063</v>
+        <v>363100273.7207212</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.134054025083798e-16</v>
+        <v>3.270497761686493e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>363100273.7207212</v>
+        <v>14.95157339168222</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.270497761686493e-07</v>
+        <v>0.0002411108403752756</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14.95157339168222</v>
+        <v>13.17522606662371</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002411108403752756</v>
+        <v>1.076666044846107</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.17522606662371</v>
+        <v>0.04185360664138179</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.076666044846107</v>
+        <v>2.306690552059823</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.04185360664138179</v>
+        <v>0.9542061976274114</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.306690552059823</v>
+        <v>1.426077839111219</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9542061976274114</v>
+        <v>24</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.426077839111219</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.308597371477807</v>
       </c>
     </row>
@@ -6126,72 +6084,66 @@
         <v>1.702874370240571e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2568673235906337</v>
+        <v>6.089543001346419e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.348563753307079</v>
+        <v>6.262631172718677e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.089543001346419e-08</v>
+        <v>0.05966003306927796</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.262631172718677e-07</v>
+        <v>0.233682753305277</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05966003306927796</v>
+        <v>0.05811878529828336</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.233682753305277</v>
+        <v>1.78350482425419</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05811878529828336</v>
+        <v>1.640432726136921</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.747340997641574</v>
+        <v>4.766647675553642</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.640432726136921</v>
+        <v>1.242097444516393e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.766647675553642</v>
+        <v>347245779.8521098</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.242097444516393e-16</v>
+        <v>3.287892365090126e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>347245779.8521098</v>
+        <v>14.97716523022647</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.287892365090126e-07</v>
+        <v>0.0002258595720735928</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.97716523022647</v>
+        <v>13.22949645162954</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002258595720735928</v>
+        <v>0.9935518977860606</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.22949645162954</v>
+        <v>0.03952984662200195</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.9935518977860606</v>
+        <v>2.150098143246469</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03952984662200195</v>
+        <v>0.9519251325896667</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.150098143246469</v>
+        <v>1.682855660538535</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9519251325896667</v>
+        <v>25</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.682855660538535</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2540285042072735</v>
       </c>
     </row>
@@ -6206,72 +6158,66 @@
         <v>1.757349302439438e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3216308428755068</v>
+        <v>7.019079975564493e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.134890585435145</v>
+        <v>6.273611640957432e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.019079975564493e-08</v>
+        <v>0.06662394332073306</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.273611640957432e-07</v>
+        <v>0.242767897491845</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06662394332073306</v>
+        <v>0.06333902305665881</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.242767897491845</v>
+        <v>1.769864018867729</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06333902305665881</v>
+        <v>1.634274019865393</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.724341076302928</v>
+        <v>5.051933217761192</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.634274019865393</v>
+        <v>1.884316487719334e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.051933217761192</v>
+        <v>245369367.7805798</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.884316487719334e-16</v>
+        <v>4.692636158569492e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>245369367.7805798</v>
+        <v>11.34473970989699</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.692636158569492e-07</v>
+        <v>0.0002040794298449177</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>11.34473970989699</v>
+        <v>9.485936596474716</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002040794298449177</v>
+        <v>1.492100213233228</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.485936596474716</v>
+        <v>0.01836367793010516</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.492100213233228</v>
+        <v>2.720611828885844</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01836367793010516</v>
+        <v>0.9494519951998741</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.720611828885844</v>
+        <v>1.742489932769888</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9494519951998741</v>
+        <v>21</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.742489932769888</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1823810370582639</v>
       </c>
     </row>
@@ -6286,72 +6232,66 @@
         <v>1.864011727560309e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4794733339032775</v>
+        <v>8.034357364781851e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5973237030039096</v>
+        <v>6.285743083843153e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.034357364781851e-08</v>
+        <v>0.06656179191222852</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.285743083843153e-07</v>
+        <v>0.2351010673164375</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06656179191222852</v>
+        <v>0.05967880160616472</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2351010673164375</v>
+        <v>1.763723119731977</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05967880160616472</v>
+        <v>1.64097348766279</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.712129963216153</v>
+        <v>4.298417922270731</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.64097348766279</v>
+        <v>3.052224419891404e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.298417922270731</v>
+        <v>155012736.6529993</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.052224419891404e-16</v>
+        <v>7.446140037426955e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>155012736.6529993</v>
+        <v>7.334174347125666</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.446140037426955e-07</v>
+        <v>0.0001923705281367126</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7.334174347125666</v>
+        <v>8.800747347386903</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001923705281367126</v>
+        <v>1.673386192327659</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.800747347386903</v>
+        <v>0.01489970411631413</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.673386192327659</v>
+        <v>2.834895945175469</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01489970411631413</v>
+        <v>0.9508744693308681</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.834895945175469</v>
+        <v>1.773666289538427</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9508744693308681</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.773666289538427</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1523711011822361</v>
       </c>
     </row>
@@ -6366,72 +6306,66 @@
         <v>2.008965873312229e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.658918204347882</v>
+        <v>8.747122560647403e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.03588075253803069</v>
+        <v>6.298076985529028e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.747122560647403e-08</v>
+        <v>0.06036432300531835</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.298076985529028e-07</v>
+        <v>0.2160054897772104</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.06036432300531835</v>
+        <v>0.05028140390895642</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2160054897772104</v>
+        <v>1.766962015840872</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05028140390895642</v>
+        <v>1.641245682608437</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.713659903632255</v>
+        <v>3.818351382041944</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.641245682608437</v>
+        <v>3.867959838493706e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.818351382041944</v>
+        <v>129927792.7959166</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.867959838493706e-16</v>
+        <v>8.964459954249611e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>129927792.7959166</v>
+        <v>6.529592485060774</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.964459954249611e-07</v>
+        <v>0.0001743484146775903</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6.529592485060774</v>
+        <v>9.7153571164851</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001743484146775903</v>
+        <v>1.275076234040255</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.7153571164851</v>
+        <v>0.01645642674043961</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.275076234040255</v>
+        <v>2.750966050279469</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01645642674043961</v>
+        <v>0.9507416858530094</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.750966050279469</v>
+        <v>1.751191156389644</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9507416858530094</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.751191156389644</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1501495202983685</v>
       </c>
     </row>
@@ -6446,72 +6380,66 @@
         <v>2.172424384034728e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8058530113199779</v>
+        <v>9.201647861998172e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.3111219233772484</v>
+        <v>6.309741239662304e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.201647861998172e-08</v>
+        <v>0.05128836057485018</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.309741239662304e-07</v>
+        <v>0.1930598736897133</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05128836057485018</v>
+        <v>0.03988616958504997</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1930598736897133</v>
+        <v>1.765863774962759</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03988616958504997</v>
+        <v>1.649421658561838</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.709810678793744</v>
+        <v>3.620738015215831</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.649421658561838</v>
+        <v>4.301694218287658e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.620738015215831</v>
+        <v>119367488.4677673</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.301694218287658e-16</v>
+        <v>9.742276239739728e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>119367488.4677673</v>
+        <v>6.129310863746543</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.742276239739728e-07</v>
+        <v>0.0001794231020785226</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.129310863746543</v>
+        <v>11.104390318398</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001794231020785226</v>
+        <v>1.095244097802141</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.104390318398</v>
+        <v>0.02212421135037935</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.095244097802141</v>
+        <v>2.512235914427876</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02212421135037935</v>
+        <v>0.9494011471227584</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.512235914427876</v>
+        <v>1.742635623540727</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9494011471227584</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.742635623540727</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1523297303155471</v>
       </c>
     </row>
@@ -6526,72 +6454,66 @@
         <v>2.336700416716693e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9104872788707541</v>
+        <v>9.473719686925428e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.4468531715194373</v>
+        <v>6.320308003011787e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.473719686925428e-08</v>
+        <v>0.04293738151846269</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.320308003011787e-07</v>
+        <v>0.173726963967174</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04293738151846269</v>
+        <v>0.03201676845869324</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.173726963967174</v>
+        <v>1.760114432253969</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03201676845869324</v>
+        <v>1.632334612788955</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.700859465193846</v>
+        <v>3.544620191319019</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.632334612788955</v>
+        <v>4.488428644651806e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.544620191319019</v>
+        <v>112700645.9278447</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.488428644651806e-16</v>
+        <v>1.030409824185432e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>112700645.9278447</v>
+        <v>5.700948734181677</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.030409824185432e-06</v>
+        <v>0.0001904056065193365</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.700948734181677</v>
+        <v>11.70721185398028</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001904056065193365</v>
+        <v>1.069226166426848</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.70721185398028</v>
+        <v>0.0260967657314782</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.069226166426848</v>
+        <v>2.335439313045997</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0260967657314782</v>
+        <v>0.9485773035146472</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.335439313045997</v>
+        <v>1.766524855398917</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9485773035146472</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.766524855398917</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1511631264890471</v>
       </c>
     </row>
@@ -6606,72 +6528,66 @@
         <v>2.49173138746508e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.9776855229071695</v>
+        <v>9.616470258445633e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4485199758273053</v>
+        <v>6.329880581024853e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.616470258445633e-08</v>
+        <v>0.03676789615448118</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.329880581024853e-07</v>
+        <v>0.1602023680272075</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03676789615448118</v>
+        <v>0.02701380951991371</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1602023680272075</v>
+        <v>1.763233688741826</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02701380951991371</v>
+        <v>1.62418805826777</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.70747985543474</v>
+        <v>3.506239332119023</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.62418805826777</v>
+        <v>4.587231151937203e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.506239332119023</v>
+        <v>111626315.4900405</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.587231151937203e-16</v>
+        <v>1.04191653227412e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>111626315.4900405</v>
+        <v>5.715889243295814</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.04191653227412e-06</v>
+        <v>0.0001921138935967373</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.715889243295814</v>
+        <v>10.63611310324846</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001921138935967373</v>
+        <v>1.174309452458873</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.63611310324846</v>
+        <v>0.02173324960320824</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.174309452458873</v>
+        <v>2.53510221933564</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02173324960320824</v>
+        <v>0.9472783636618216</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.53510221933564</v>
+        <v>1.729688772510294</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9472783636618216</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.729688772510294</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.143034519052483</v>
       </c>
     </row>
@@ -6686,72 +6602,66 @@
         <v>2.633982607970226e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.013688988051878</v>
+        <v>9.656619178480464e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3683580568953668</v>
+        <v>6.338703227005344e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.656619178480464e-08</v>
+        <v>0.03236223935371826</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.338703227005344e-07</v>
+        <v>0.1506573222508225</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03236223935371826</v>
+        <v>0.02374412228603293</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1506573222508225</v>
+        <v>1.763201808615224</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02374412228603293</v>
+        <v>1.606226248240567</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.707056663679944</v>
+        <v>3.502799482854517</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.606226248240567</v>
+        <v>4.596245160123748e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.502799482854517</v>
+        <v>110857821.0271696</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.596245160123748e-16</v>
+        <v>1.047473855821326e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>110857821.0271696</v>
+        <v>5.648535488004362</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.047473855821326e-06</v>
+        <v>0.0002046285840820293</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.648535488004362</v>
+        <v>9.221928147902705</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002046285840820293</v>
+        <v>1.55183572501449</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.221928147902705</v>
+        <v>0.01740242486682885</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.55183572501449</v>
+        <v>2.691508842224494</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01740242486682885</v>
+        <v>0.9488285246668555</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.691508842224494</v>
+        <v>1.721599284088712</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9488285246668555</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.721599284088712</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1366094868338016</v>
       </c>
     </row>
@@ -6766,72 +6676,66 @@
         <v>2.763460666405182e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.025513555992365</v>
+        <v>9.65675540355362e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.2397608795202455</v>
+        <v>6.346996361142583e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.65675540355362e-08</v>
+        <v>0.0292909551812478</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.346996361142583e-07</v>
+        <v>0.1434767325502939</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0292909551812478</v>
+        <v>0.02144339490290289</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1434767325502939</v>
+        <v>1.759919453814719</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02144339490290289</v>
+        <v>1.598202115292344</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.703327695587862</v>
+        <v>3.523802466611786</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.598202115292344</v>
+        <v>4.541618276744979e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.523802466611786</v>
+        <v>110877559.5954289</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.541618276744979e-16</v>
+        <v>1.043413179499767e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>110877559.5954289</v>
+        <v>5.583389765155359</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.043413179499767e-06</v>
+        <v>0.0001868073116832235</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.583389765155359</v>
+        <v>9.36440694283511</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001868073116832235</v>
+        <v>1.409495562766062</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.36440694283511</v>
+        <v>0.0163815287056258</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.409495562766062</v>
+        <v>2.734398090093821</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0163815287056258</v>
+        <v>0.9478478674367747</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.734398090093821</v>
+        <v>1.76230646219965</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9478478674367747</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.76230646219965</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1433456456299567</v>
       </c>
     </row>
@@ -6846,72 +6750,66 @@
         <v>2.881876770046904e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.019760597988642</v>
+        <v>9.65675540355362e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.08569421327193449</v>
+        <v>6.354950405178104e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.65675540355362e-08</v>
+        <v>0.02720604772575861</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.354950405178104e-07</v>
+        <v>0.137670819064033</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02720604772575861</v>
+        <v>0.01969347649902079</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.137670819064033</v>
+        <v>1.754827562152166</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01969347649902079</v>
+        <v>1.600853898417271</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.701498037655246</v>
+        <v>3.550181643531921</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.600853898417271</v>
+        <v>4.474377178012449e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.550181643531921</v>
+        <v>113136831.5772197</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.474377178012449e-16</v>
+        <v>1.022230936468097e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>113136831.5772197</v>
+        <v>5.727177131478388</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.022230936468097e-06</v>
+        <v>0.0001803397127702903</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.727177131478388</v>
+        <v>11.03544261027325</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001803397127702903</v>
+        <v>1.104225960956274</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.03544261027325</v>
+        <v>0.02196194940754034</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.104225960956274</v>
+        <v>2.527326974935823</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02196194940754034</v>
+        <v>0.9486518521703196</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.527326974935823</v>
+        <v>1.771877138539613</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9486518521703196</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.771877138539613</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1529626381220243</v>
       </c>
     </row>
@@ -6926,72 +6824,66 @@
         <v>2.991568234099882e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.001665786633282</v>
+        <v>9.65675540355362e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.07888020793607531</v>
+        <v>6.362734321191468e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.65675540355362e-08</v>
+        <v>0.02591874682579327</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.362734321191468e-07</v>
+        <v>0.1326777645653338</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02591874682579327</v>
+        <v>0.01827525653961152</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1326777645653338</v>
+        <v>1.751329919890464</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01827525653961152</v>
+        <v>1.564621269713136</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.700134305267209</v>
+        <v>3.585855707411125</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.564621269713136</v>
+        <v>4.385792895561661e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.585855707411125</v>
+        <v>115238251.9145907</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.385792895561661e-16</v>
+        <v>1.000707898270367e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>115238251.9145907</v>
+        <v>5.824269241634457</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.000707898270367e-06</v>
+        <v>0.0001905386227181407</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.824269241634457</v>
+        <v>11.78898600137056</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001905386227181407</v>
+        <v>1.059509682479951</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.78898600137056</v>
+        <v>0.02648109416690919</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.059509682479951</v>
+        <v>2.333745889064911</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02648109416690919</v>
+        <v>0.949061230479108</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.333745889064911</v>
+        <v>1.73755006918782</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.949061230479108</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.73755006918782</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1524635770384599</v>
       </c>
     </row>
@@ -7368,7 +7260,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.477097981550451</v>
+        <v>1.504707425043649</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.444276956804518</v>
@@ -7457,7 +7349,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486162443046744</v>
+        <v>1.514418200085975</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.411630914950281</v>
@@ -7546,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522384942747391</v>
+        <v>1.548339118748932</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.370799461705786</v>
@@ -7635,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501900456609854</v>
+        <v>1.53150615402435</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.417452201364062</v>
@@ -7724,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516904647438304</v>
+        <v>1.543179602416266</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.471412858305965</v>
@@ -7813,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.547302696577413</v>
+        <v>1.573456116043848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.238996350316217</v>
@@ -7902,7 +7794,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573346193110928</v>
+        <v>1.595921201204288</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.347574630869662</v>
@@ -7991,7 +7883,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59124651547005</v>
+        <v>1.612723044023064</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.469735814347012</v>
@@ -8080,7 +7972,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550481550751192</v>
+        <v>1.548277148114872</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.197141676615924</v>
@@ -8169,7 +8061,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539649842689558</v>
+        <v>1.536573895649981</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.310098898704381</v>
@@ -8258,7 +8150,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584842719883427</v>
+        <v>1.578309359365868</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.250657716858223</v>
@@ -8347,7 +8239,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593629195934432</v>
+        <v>1.587188148053099</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.301170003883666</v>
@@ -8436,7 +8328,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.594937059482471</v>
+        <v>1.589141837158926</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.273352956815067</v>
@@ -8525,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622354857627736</v>
+        <v>1.60837959530981</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.506696104792861</v>
@@ -8614,7 +8506,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.578352428130978</v>
+        <v>1.570457480827858</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.292721006863148</v>
@@ -8703,7 +8595,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576878380066038</v>
+        <v>1.570636479361621</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.259891188457567</v>
@@ -8792,7 +8684,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556529726374801</v>
+        <v>1.555457949692462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.281262418998691</v>
@@ -8881,7 +8773,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540883484470218</v>
+        <v>1.54176299578881</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.253677060329578</v>
@@ -8970,7 +8862,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.572625756586952</v>
+        <v>1.566088113213459</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.182763061629406</v>
@@ -9059,7 +8951,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.594806481228136</v>
+        <v>1.593754426219137</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.104705657098389</v>
@@ -9148,7 +9040,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595359660977612</v>
+        <v>1.592129284034133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.287569628097938</v>
@@ -9237,7 +9129,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.586413382306916</v>
+        <v>1.580605869612978</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.263628140892417</v>
@@ -9326,7 +9218,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586209547730694</v>
+        <v>1.582467801965896</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.268254365756838</v>
@@ -9415,7 +9307,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545883770686723</v>
+        <v>1.540037581177697</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.241615878955378</v>
@@ -9504,7 +9396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.56631505469282</v>
+        <v>1.561153326183569</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.250173158220238</v>
@@ -9593,7 +9485,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567319657227545</v>
+        <v>1.557382161361186</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.236341151828801</v>
@@ -9682,7 +9574,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543654188029977</v>
+        <v>1.531072180679192</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.224130232217831</v>
@@ -9771,7 +9663,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.549531297314722</v>
+        <v>1.539128894421611</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.221602230432991</v>
@@ -9860,7 +9752,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54996002861577</v>
+        <v>1.538761686413892</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.283034634908139</v>
@@ -9949,7 +9841,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557514198520645</v>
+        <v>1.546482405403109</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459499034663438</v>
@@ -10038,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.504093867675454</v>
+        <v>1.49734536898688</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.19262196294684</v>
@@ -10127,7 +10019,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546156496058649</v>
+        <v>1.52865789978215</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.230521941711655</v>
@@ -10216,7 +10108,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561763143472464</v>
+        <v>1.540743927086467</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.140961854919941</v>
@@ -10305,7 +10197,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.542627330007092</v>
+        <v>1.52069579112327</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.109085829136862</v>
@@ -10394,7 +10286,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53708683151123</v>
+        <v>1.514671792181435</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.172917837244192</v>
@@ -10483,7 +10375,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.546807518794023</v>
+        <v>1.523870476283816</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.098290053318301</v>
@@ -10572,7 +10464,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550803936903168</v>
+        <v>1.530649387373183</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.192387686450806</v>
@@ -10661,7 +10553,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.528658554481538</v>
+        <v>1.507276443545182</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.211430388440565</v>
@@ -10750,7 +10642,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559785782503973</v>
+        <v>1.539608692488523</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.224580604863552</v>
@@ -10839,7 +10731,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.549681626208032</v>
+        <v>1.532311799250342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.191706139977037</v>
@@ -10928,7 +10820,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548294998207044</v>
+        <v>1.532969004318852</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.226572699743697</v>
@@ -11017,7 +10909,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533197913797171</v>
+        <v>1.523652236234946</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.215422279918004</v>
@@ -11106,7 +10998,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522379958362688</v>
+        <v>1.512429022908485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.183978523613911</v>
@@ -11195,7 +11087,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.510737649647206</v>
+        <v>1.493760857231529</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.292848408345891</v>
@@ -11284,7 +11176,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.516963038816486</v>
+        <v>1.501729425387698</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.060428851955122</v>
@@ -11373,7 +11265,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509319067355596</v>
+        <v>1.494619222483694</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.143620768047898</v>
@@ -11462,7 +11354,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.502808143812026</v>
+        <v>1.492632186623236</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.151852344712691</v>
@@ -11551,7 +11443,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.486858789834449</v>
+        <v>1.471944868914109</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.131891267502604</v>
@@ -11640,7 +11532,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495919161368812</v>
+        <v>1.490896542638332</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.099684557608041</v>
@@ -11729,7 +11621,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.499522602187398</v>
+        <v>1.495177039581256</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.144333910130016</v>
@@ -11818,7 +11710,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.489327318973348</v>
+        <v>1.483718526210065</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.210230193579986</v>
@@ -11907,7 +11799,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.466393973976685</v>
+        <v>1.459150344416456</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.066322439847265</v>
@@ -11996,7 +11888,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.481442053574717</v>
+        <v>1.473479669946584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.11093300918476</v>
@@ -12085,7 +11977,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.480257496522434</v>
+        <v>1.474111202239148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.133918316533745</v>
@@ -12174,7 +12066,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.481915130644148</v>
+        <v>1.474282318895937</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.116935470225739</v>
@@ -12263,7 +12155,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.474971289543876</v>
+        <v>1.462658395671769</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.18586551954784</v>
@@ -12352,7 +12244,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.499291860269644</v>
+        <v>1.480215651549772</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.096263824524006</v>
@@ -12441,7 +12333,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.457214906824278</v>
+        <v>1.441312974845589</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.05108085588336</v>
@@ -12530,7 +12422,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.470835399883608</v>
+        <v>1.456872842686762</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.018784191509602</v>
@@ -12619,7 +12511,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478607507623167</v>
+        <v>1.459916099545699</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.97174948276011</v>
@@ -12708,7 +12600,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.505615197036957</v>
+        <v>1.486207387217354</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.148899187513937</v>
@@ -12994,7 +12886,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.49521583981803</v>
+        <v>1.535564624661688</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.852705887784605</v>
@@ -13083,7 +12975,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.497933330976521</v>
+        <v>1.539041161117683</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.856262674952575</v>
@@ -13172,7 +13064,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498533784439261</v>
+        <v>1.537651303676896</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.856359132950849</v>
@@ -13261,7 +13153,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488573719262459</v>
+        <v>1.530913823943049</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.845960349997857</v>
@@ -13350,7 +13242,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49372669306341</v>
+        <v>1.535704361718943</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.849490766525157</v>
@@ -13439,7 +13331,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503833329594984</v>
+        <v>1.549175289324741</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.867454266318791</v>
@@ -13528,7 +13420,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.507956671533787</v>
+        <v>1.551429306017207</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.866110689718123</v>
@@ -13617,7 +13509,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.518507088027279</v>
+        <v>1.560526024201329</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.868765375482041</v>
@@ -13706,7 +13598,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.520449298997846</v>
+        <v>1.516916173194408</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.064992751748727</v>
@@ -13795,7 +13687,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543628287087272</v>
+        <v>1.539607486676458</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.480965495217654</v>
@@ -13884,7 +13776,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578024200200637</v>
+        <v>1.568692703292857</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.654315135798821</v>
@@ -13973,7 +13865,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6036779227672</v>
+        <v>1.593281937013485</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.616552108362385</v>
@@ -14062,7 +13954,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599903422141783</v>
+        <v>1.591241480741233</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.513152991296003</v>
@@ -14151,7 +14043,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.618020529685336</v>
+        <v>1.604100273497146</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.416698050868693</v>
@@ -14240,7 +14132,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576123837169871</v>
+        <v>1.56263937094882</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.45001607073005</v>
@@ -14329,7 +14221,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572731708918001</v>
+        <v>1.555184184229919</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.550757556729679</v>
@@ -14418,7 +14310,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561541609552399</v>
+        <v>1.545112872965236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.474472510902884</v>
@@ -14507,7 +14399,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.57225525900607</v>
+        <v>1.556406423158011</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.37066507971678</v>
@@ -14596,7 +14488,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.599311668489584</v>
+        <v>1.572914980223781</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.442393320475839</v>
@@ -14685,7 +14577,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613503229614608</v>
+        <v>1.586490762590138</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.392633198402746</v>
@@ -14774,7 +14666,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.609876904006656</v>
+        <v>1.582090812347954</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.588241807693484</v>
@@ -14863,7 +14755,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604392089401143</v>
+        <v>1.576440984086592</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.61571189856032</v>
@@ -14952,7 +14844,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592272731572536</v>
+        <v>1.560976952981556</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.456914529625301</v>
@@ -15041,7 +14933,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.565712556823087</v>
+        <v>1.532354461973486</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.463577209531089</v>
@@ -15130,7 +15022,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565072664435555</v>
+        <v>1.532531258548596</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.486300266675331</v>
@@ -15219,7 +15111,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561760644526851</v>
+        <v>1.525781175830714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.495290940748745</v>
@@ -15308,7 +15200,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.548037784825929</v>
+        <v>1.511982857272153</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.501434730192128</v>
@@ -15397,7 +15289,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.552619386856967</v>
+        <v>1.51682771927327</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.45612930967676</v>
@@ -15486,7 +15378,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5430051125132</v>
+        <v>1.512717935918756</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.39571997231261</v>
@@ -15575,7 +15467,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.553922071441098</v>
+        <v>1.523890592159955</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.869540335306253</v>
@@ -15664,7 +15556,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535902875936637</v>
+        <v>1.511026166888527</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.769693076207324</v>
@@ -15753,7 +15645,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552710375811557</v>
+        <v>1.52775803294202</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.742317449095515</v>
@@ -15842,7 +15734,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.570700597255765</v>
+        <v>1.54285203177828</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.724698590558426</v>
@@ -15931,7 +15823,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566254173763242</v>
+        <v>1.53408790818818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.678610481955297</v>
@@ -16020,7 +15912,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543845945726494</v>
+        <v>1.521726061683562</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.891409101214541</v>
@@ -16109,7 +16001,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553071820181417</v>
+        <v>1.531966769749624</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.883845626402441</v>
@@ -16198,7 +16090,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.548478012025938</v>
+        <v>1.529218358693019</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.86830938819113</v>
@@ -16287,7 +16179,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.547921176813948</v>
+        <v>1.52641903598053</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.627833398393908</v>
@@ -16376,7 +16268,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565290088537798</v>
+        <v>1.542376177045954</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.697922523782055</v>
@@ -16465,7 +16357,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568894671204576</v>
+        <v>1.545049726682408</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.737670054344826</v>
@@ -16554,7 +16446,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570004871509997</v>
+        <v>1.54997580239299</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.792347527461422</v>
@@ -16643,7 +16535,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56705127685986</v>
+        <v>1.549209694196984</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.739429786663077</v>
@@ -16732,7 +16624,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555728244733904</v>
+        <v>1.535899313786248</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.689221863447447</v>
@@ -16821,7 +16713,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.547237301179116</v>
+        <v>1.525972286742287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.832791515109096</v>
@@ -16910,7 +16802,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562874546949394</v>
+        <v>1.534528504948407</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.715222115305554</v>
@@ -16999,7 +16891,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.558932528062663</v>
+        <v>1.530807001282675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.844854466456967</v>
@@ -17088,7 +16980,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.539113183019173</v>
+        <v>1.515950959700473</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.684139186964731</v>
@@ -17177,7 +17069,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.523918729797008</v>
+        <v>1.502341564889265</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.730259003451709</v>
@@ -17266,7 +17158,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558279520714685</v>
+        <v>1.542247595851688</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.741925444437154</v>
@@ -17355,7 +17247,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.577263493927442</v>
+        <v>1.555710536271269</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.821047277500827</v>
@@ -17444,7 +17336,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.573410185842413</v>
+        <v>1.549835560526437</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.78626604919934</v>
@@ -17533,7 +17425,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578096926463729</v>
+        <v>1.55760830555524</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.628598817908552</v>
@@ -17622,7 +17514,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.6029726302496</v>
+        <v>1.580322968275956</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.672575669522609</v>
@@ -17711,7 +17603,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.609254557853598</v>
+        <v>1.595320153808784</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.937191560111946</v>
@@ -17800,7 +17692,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.61795311545764</v>
+        <v>1.603844533368403</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.956821734576327</v>
@@ -17889,7 +17781,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623247580363917</v>
+        <v>1.60616510958622</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.608704812390847</v>
@@ -17978,7 +17870,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.639582552188524</v>
+        <v>1.615574554924117</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.948062037520045</v>
@@ -18067,7 +17959,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.635609624644999</v>
+        <v>1.615411664691351</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.541024593052841</v>
@@ -18156,7 +18048,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.649482013335363</v>
+        <v>1.625599181891364</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.872034162386654</v>
@@ -18245,7 +18137,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.661429005429015</v>
+        <v>1.639074998308578</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.021546337754796</v>
@@ -18334,7 +18226,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.665301085828444</v>
+        <v>1.645781557932176</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.054554197333585</v>
@@ -18620,7 +18512,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.820721971609671</v>
+        <v>1.807530786216476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.283934350257213</v>
@@ -18709,7 +18601,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.82424024535838</v>
+        <v>1.814528960596862</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.286806850621401</v>
@@ -18798,7 +18690,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.824230144770026</v>
+        <v>1.813093622777107</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.288838655957937</v>
@@ -18887,7 +18779,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.825078849346037</v>
+        <v>1.815069829696496</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.291767072470452</v>
@@ -18976,7 +18868,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.827810824485141</v>
+        <v>1.820114935056075</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.279826435704789</v>
@@ -19065,7 +18957,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.828468505172527</v>
+        <v>1.819241375531368</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.280424952531536</v>
@@ -19154,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.834125896110316</v>
+        <v>1.823193312606356</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.288470569919104</v>
@@ -19243,7 +19135,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.830233498198157</v>
+        <v>1.816772211549992</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.288723625771399</v>
@@ -19332,7 +19224,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.760035594377106</v>
+        <v>1.712675719628464</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.58037537331264</v>
@@ -19421,7 +19313,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.78187328318532</v>
+        <v>1.72751314691716</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.560951079975874</v>
@@ -19510,7 +19402,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.786685981176781</v>
+        <v>1.731155402562304</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.102759391309202</v>
@@ -19599,7 +19491,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.797362404795569</v>
+        <v>1.737481343830001</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.695266030382794</v>
@@ -19688,7 +19580,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.790427046420776</v>
+        <v>1.731663183786677</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.834794831064897</v>
@@ -19777,7 +19669,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.799650660498363</v>
+        <v>1.741344146026803</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.888026873933108</v>
@@ -19866,7 +19758,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.780512368847531</v>
+        <v>1.725888881096034</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.351406095187465</v>
@@ -19955,7 +19847,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.775390247240343</v>
+        <v>1.719410525729997</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.197974507065452</v>
@@ -20044,7 +19936,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.764883083387053</v>
+        <v>1.709748942956131</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.245452030473149</v>
@@ -20133,7 +20025,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.770044415033497</v>
+        <v>1.715311328388249</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.465655190678677</v>
@@ -20222,7 +20114,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.780890326694585</v>
+        <v>1.720614275158691</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.658457660789189</v>
@@ -20311,7 +20203,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.786011035767131</v>
+        <v>1.727602592627637</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.198891135420042</v>
@@ -20400,7 +20292,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.784658368209949</v>
+        <v>1.720617092167906</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.674804915881523</v>
@@ -20489,7 +20381,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.783181013143873</v>
+        <v>1.720047834548544</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.658052043093825</v>
@@ -20578,7 +20470,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.788804869386068</v>
+        <v>1.734189684539526</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.829648829375437</v>
@@ -20667,7 +20559,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.774423329434022</v>
+        <v>1.715782322105891</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.5845568090838</v>
@@ -20756,7 +20648,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.766937006012523</v>
+        <v>1.706131100596061</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.1634789356841</v>
@@ -20845,7 +20737,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.739985536456468</v>
+        <v>1.692929739348868</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.150295013871685</v>
@@ -20934,7 +20826,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737494914404354</v>
+        <v>1.698181552574468</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.166641779443995</v>
@@ -21023,7 +20915,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.739920035726626</v>
+        <v>1.704260424619376</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.053878464200735</v>
@@ -21112,7 +21004,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737448266552666</v>
+        <v>1.703373009905972</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.220918920544885</v>
@@ -21201,7 +21093,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750743884757071</v>
+        <v>1.713624469711341</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.203510087650922</v>
@@ -21290,7 +21182,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.745260177558805</v>
+        <v>1.713294899295934</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.054035346414693</v>
@@ -21379,7 +21271,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.746849144177929</v>
+        <v>1.716678473596285</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.026970207456098</v>
@@ -21468,7 +21360,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.744008929519574</v>
+        <v>1.722639428933182</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.159204223678779</v>
@@ -21557,7 +21449,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745131700362817</v>
+        <v>1.721485333579667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.085511250256356</v>
@@ -21646,7 +21538,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733129077796009</v>
+        <v>1.710054277771561</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.997202206377596</v>
@@ -21735,7 +21627,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72871967674433</v>
+        <v>1.708295131048363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.111784223412614</v>
@@ -21824,7 +21716,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727563329099018</v>
+        <v>1.708007567673543</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.03162213028204</v>
@@ -21913,7 +21805,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.725447533531843</v>
+        <v>1.703476532497492</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.24053626318523</v>
@@ -22002,7 +21894,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.73505138147718</v>
+        <v>1.720573605470449</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.8311954604145</v>
@@ -22091,7 +21983,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.758720615287707</v>
+        <v>1.739136815894662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.862537183779567</v>
@@ -22180,7 +22072,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.768457099963263</v>
+        <v>1.748116354556683</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.254178887766195</v>
@@ -22269,7 +22161,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.767564236333104</v>
+        <v>1.743687689760108</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.028908776551559</v>
@@ -22358,7 +22250,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.764291630733673</v>
+        <v>1.732157420739247</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.950955447466375</v>
@@ -22447,7 +22339,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.754294121305835</v>
+        <v>1.724703808832662</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.298691381040067</v>
@@ -22536,7 +22428,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.751429559094611</v>
+        <v>1.718560619934411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.795492906013958</v>
@@ -22625,7 +22517,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.756692362280993</v>
+        <v>1.723490093841348</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.742255941103829</v>
@@ -22714,7 +22606,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.747535219856506</v>
+        <v>1.716267405021042</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.565252566091914</v>
@@ -22803,7 +22695,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.742850278053333</v>
+        <v>1.71296553947925</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.763660699852638</v>
@@ -22892,7 +22784,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.750132871682836</v>
+        <v>1.724634019498757</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.339310587701963</v>
@@ -22981,7 +22873,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.752291700941199</v>
+        <v>1.731233173158301</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.890815098126307</v>
@@ -23070,7 +22962,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.753121876805244</v>
+        <v>1.733822555761755</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.849898644652231</v>
@@ -23159,7 +23051,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758475204305955</v>
+        <v>1.736335758833386</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.567593321111256</v>
@@ -23248,7 +23140,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.769640624184178</v>
+        <v>1.745706239651629</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.157462030638672</v>
@@ -23337,7 +23229,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.770247774789304</v>
+        <v>1.745531192540521</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.919797334812213</v>
@@ -23426,7 +23318,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.770542066355923</v>
+        <v>1.744428220102703</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.657024292482519</v>
@@ -23515,7 +23407,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.776020334582501</v>
+        <v>1.744438474728645</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.841355535027395</v>
@@ -23604,7 +23496,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.780334394860307</v>
+        <v>1.7438360589108</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.7810045085396</v>
@@ -23693,7 +23585,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.7823300816056</v>
+        <v>1.752229987761873</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.864357230136481</v>
@@ -23782,7 +23674,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.785101564660402</v>
+        <v>1.752885572001151</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.811822579592722</v>
@@ -23871,7 +23763,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.800221704757877</v>
+        <v>1.765984013240823</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.551160913855428</v>
@@ -23960,7 +23852,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.801064168983511</v>
+        <v>1.763078711269683</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.410238133678661</v>
@@ -24246,7 +24138,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.75120316337917</v>
+        <v>1.755416084783984</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.177421001914018</v>
@@ -24335,7 +24227,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.746477952708066</v>
+        <v>1.75311634777445</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.148360210179239</v>
@@ -24424,7 +24316,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.749161676973527</v>
+        <v>1.749910154764292</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.171944457967047</v>
@@ -24513,7 +24405,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.734305176995277</v>
+        <v>1.733119115765627</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.15230037396968</v>
@@ -24602,7 +24494,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735070081102435</v>
+        <v>1.732918586660343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.173009961281913</v>
@@ -24691,7 +24583,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.744471792420474</v>
+        <v>1.741839814359011</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.145225847929165</v>
@@ -24780,7 +24672,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.745372530408025</v>
+        <v>1.742363197515217</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.176039623343092</v>
@@ -24869,7 +24761,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.752920732693058</v>
+        <v>1.743818951350269</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.19716820051547</v>
@@ -24958,7 +24850,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688572346996124</v>
+        <v>1.661348900697641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.801627527814693</v>
@@ -25047,7 +24939,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.707824076451297</v>
+        <v>1.673282852195289</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.183510449384845</v>
@@ -25136,7 +25028,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711328446492759</v>
+        <v>1.676728998893765</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.749649597040194</v>
@@ -25225,7 +25117,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.717848207578203</v>
+        <v>1.682319632128657</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.434452646888926</v>
@@ -25314,7 +25206,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.722214886703064</v>
+        <v>1.685701549560272</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.800447881791042</v>
@@ -25403,7 +25295,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.715937510995023</v>
+        <v>1.68371368038316</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.199000263117327</v>
@@ -25492,7 +25384,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712244121453366</v>
+        <v>1.68368176925365</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.293070406969608</v>
@@ -25581,7 +25473,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.713702616784816</v>
+        <v>1.678072386819858</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.478669680480427</v>
@@ -25670,7 +25562,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.714837262305645</v>
+        <v>1.676324723820263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.021306111836118</v>
@@ -25759,7 +25651,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.726115814504506</v>
+        <v>1.686097900985863</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.048702673255747</v>
@@ -25848,7 +25740,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.740781021502321</v>
+        <v>1.701502339328317</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.199816403659965</v>
@@ -25937,7 +25829,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.751675303888687</v>
+        <v>1.711506285491056</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.391193405454697</v>
@@ -26026,7 +25918,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.750788689490389</v>
+        <v>1.705417147637278</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.356780392209411</v>
@@ -26115,7 +26007,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.751129381793729</v>
+        <v>1.702457149263778</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.537328641817778</v>
@@ -26204,7 +26096,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.755124229065547</v>
+        <v>1.70577306476586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.204732728140205</v>
@@ -26293,7 +26185,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.757385894755197</v>
+        <v>1.708926094323197</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.337920794950501</v>
@@ -26382,7 +26274,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.758553938503482</v>
+        <v>1.711928479557237</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.672370884569441</v>
@@ -26471,7 +26363,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.76778701091196</v>
+        <v>1.718700622528022</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.459713152109584</v>
@@ -26560,7 +26452,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.759908738532933</v>
+        <v>1.715363351281345</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.529470939565138</v>
@@ -26649,7 +26541,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758951785346363</v>
+        <v>1.711887663328744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.385450043235737</v>
@@ -26738,7 +26630,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.785658212411702</v>
+        <v>1.728474673473882</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.893102183044463</v>
@@ -26827,7 +26719,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.790424294226648</v>
+        <v>1.734087402173333</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.953652367464655</v>
@@ -26916,7 +26808,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.780494236276082</v>
+        <v>1.731916860980758</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.956693350963266</v>
@@ -27005,7 +26897,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.792197714171554</v>
+        <v>1.744841018469269</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.293163701443606</v>
@@ -27094,7 +26986,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.78161937846602</v>
+        <v>1.741808575192795</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.776678181775861</v>
@@ -27183,7 +27075,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.784229020194033</v>
+        <v>1.744207334111032</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.041296225542619</v>
@@ -27272,7 +27164,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.775832746974734</v>
+        <v>1.735882308754881</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.190465537620168</v>
@@ -27361,7 +27253,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.77049882839979</v>
+        <v>1.731635711090675</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.885579212148931</v>
@@ -27450,7 +27342,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.773194680840893</v>
+        <v>1.734476435230992</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.262460754849732</v>
@@ -27539,7 +27431,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.760664803917159</v>
+        <v>1.721843671237275</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.313151654352054</v>
@@ -27628,7 +27520,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758495734129192</v>
+        <v>1.721174686397796</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.262799909649246</v>
@@ -27717,7 +27609,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.752918989815411</v>
+        <v>1.715120740838278</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.433406035210695</v>
@@ -27806,7 +27698,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.745269482925587</v>
+        <v>1.712231438253423</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.655971749952773</v>
@@ -27895,7 +27787,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.742295820736992</v>
+        <v>1.708646846283814</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.967902393417391</v>
@@ -27984,7 +27876,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.739586804646935</v>
+        <v>1.710307881307081</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.980749370017357</v>
@@ -28073,7 +27965,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.738189142425088</v>
+        <v>1.712764528607908</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.068395395801256</v>
@@ -28162,7 +28054,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.728998016162457</v>
+        <v>1.70355977941375</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.69668974245146</v>
@@ -28251,7 +28143,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.727418419697304</v>
+        <v>1.707369266307973</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.909067030461193</v>
@@ -28340,7 +28232,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727127689565815</v>
+        <v>1.702799816721386</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.608018360094364</v>
@@ -28429,7 +28321,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726615871005551</v>
+        <v>1.699532516646643</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.964198747282071</v>
@@ -28518,7 +28410,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.732644134680096</v>
+        <v>1.706000790363744</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.075368086036523</v>
@@ -28607,7 +28499,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.738713157887862</v>
+        <v>1.707230337358348</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.037516679911849</v>
@@ -28696,7 +28588,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.738683138301687</v>
+        <v>1.712921265936148</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.667946137194069</v>
@@ -28785,7 +28677,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.736975919664212</v>
+        <v>1.709304518493768</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.57758907989511</v>
@@ -28874,7 +28766,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.745331775527277</v>
+        <v>1.714920823267728</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.895103089780539</v>
@@ -28963,7 +28855,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.744417741423037</v>
+        <v>1.71804490931304</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.080373101877483</v>
@@ -29052,7 +28944,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.750119180843471</v>
+        <v>1.729617783059789</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.111410320008821</v>
@@ -29141,7 +29033,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.759445452178954</v>
+        <v>1.733934128305126</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.960134854673374</v>
@@ -29230,7 +29122,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.75650540635544</v>
+        <v>1.728965192358428</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.772387478073698</v>
@@ -29319,7 +29211,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.750678675373131</v>
+        <v>1.724647137343958</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.2079261623834</v>
@@ -29408,7 +29300,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.75466047281757</v>
+        <v>1.728674782597206</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.31935422073448</v>
@@ -29497,7 +29389,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.761390390006149</v>
+        <v>1.733025082009195</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.410545872464399</v>
@@ -29586,7 +29478,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.770894694664057</v>
+        <v>1.735832960386187</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.40765219449786</v>
@@ -29872,7 +29764,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.413347989378082</v>
+        <v>1.433140848684409</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.674016220213734</v>
@@ -29961,7 +29853,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416714181820221</v>
+        <v>1.433602545892315</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.675629083113534</v>
@@ -30050,7 +29942,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.421719245226626</v>
+        <v>1.436965517567861</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.667400211319269</v>
@@ -30139,7 +30031,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.417491895176168</v>
+        <v>1.432250331080103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.681073329138295</v>
@@ -30228,7 +30120,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.431888053879958</v>
+        <v>1.447013336075276</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.668986703856614</v>
@@ -30317,7 +30209,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.440581309331603</v>
+        <v>1.455754691386825</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.643624080581169</v>
@@ -30406,7 +30298,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.44924937756841</v>
+        <v>1.465833441839442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.647513405428958</v>
@@ -30495,7 +30387,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.45658437902484</v>
+        <v>1.472504637753613</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.692024504288006</v>
@@ -30584,7 +30476,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.46589256136613</v>
+        <v>1.462278261040315</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.941939418790532</v>
@@ -30673,7 +30565,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.48226201703174</v>
+        <v>1.471339405746859</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.32845864543254</v>
@@ -30762,7 +30654,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.516093281252468</v>
+        <v>1.497662801920948</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.314031127359349</v>
@@ -30851,7 +30743,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.532678565994432</v>
+        <v>1.512854117932885</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.7503077449906</v>
@@ -30940,7 +30832,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.524413512003103</v>
+        <v>1.506732565446146</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.694874055258012</v>
@@ -31029,7 +30921,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.5534210227753</v>
+        <v>1.535109953379915</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.687251419471326</v>
@@ -31118,7 +31010,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517713514377077</v>
+        <v>1.501100439688255</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.615884342643328</v>
@@ -31207,7 +31099,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.517063857078159</v>
+        <v>1.500746634632488</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.518618704566069</v>
@@ -31296,7 +31188,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.505105748692021</v>
+        <v>1.492696160976349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.545659969880304</v>
@@ -31385,7 +31277,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.512566230991521</v>
+        <v>1.500256624366217</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.587161518962918</v>
@@ -31474,7 +31366,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.52715951590997</v>
+        <v>1.514148277600075</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.485690752293662</v>
@@ -31563,7 +31455,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542005958059911</v>
+        <v>1.530690032957267</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.455490679156291</v>
@@ -31652,7 +31544,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.546576508404036</v>
+        <v>1.531190764385326</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.524844866782021</v>
@@ -31741,7 +31633,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534799989414909</v>
+        <v>1.519308017404073</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.433133605300819</v>
@@ -31830,7 +31722,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.540976841054251</v>
+        <v>1.522656790259426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.518721904175917</v>
@@ -31919,7 +31811,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504695624364202</v>
+        <v>1.491607978416872</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.513927964879056</v>
@@ -32008,7 +31900,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.521222646545326</v>
+        <v>1.510363274374742</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.598819721305569</v>
@@ -32097,7 +31989,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.510262619871118</v>
+        <v>1.498513044670033</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.572971996998113</v>
@@ -32186,7 +32078,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.503624238201502</v>
+        <v>1.490898646229182</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.641968253611527</v>
@@ -32275,7 +32167,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.503625933054763</v>
+        <v>1.491438488086309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.533177672581113</v>
@@ -32364,7 +32256,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.506564161776111</v>
+        <v>1.489910504837766</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.630623579371469</v>
@@ -32453,7 +32345,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.525416957189504</v>
+        <v>1.50699357891115</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.630289346528025</v>
@@ -32542,7 +32434,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.498333520924673</v>
+        <v>1.482851505756526</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.345836787019934</v>
@@ -32631,7 +32523,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.521888261761376</v>
+        <v>1.501705960239309</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.478532081540031</v>
@@ -32720,7 +32612,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534816871086288</v>
+        <v>1.513475567281831</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.389576258580656</v>
@@ -32809,7 +32701,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522400095194337</v>
+        <v>1.500666473290285</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.313002953732417</v>
@@ -32898,7 +32790,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508225492018548</v>
+        <v>1.490976715399079</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.322095286312046</v>
@@ -32987,7 +32879,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.505478287497674</v>
+        <v>1.487185752197963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.292596413215167</v>
@@ -33076,7 +32968,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.505638056927914</v>
+        <v>1.484569328098208</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.386596205927778</v>
@@ -33165,7 +33057,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.507753124578377</v>
+        <v>1.490301485824678</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.400467985909609</v>
@@ -33254,7 +33146,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531183221517143</v>
+        <v>1.51267763344186</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.247201664158053</v>
@@ -33343,7 +33235,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.531082384987704</v>
+        <v>1.514344300704137</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.220884164948821</v>
@@ -33432,7 +33324,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53654183681096</v>
+        <v>1.525594326225572</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.411470760751935</v>
@@ -33521,7 +33413,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.527994356608181</v>
+        <v>1.520219505252153</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.356406686510681</v>
@@ -33610,7 +33502,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535968779215535</v>
+        <v>1.524643060945559</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.38052945232028</v>
@@ -33699,7 +33591,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.51248119424179</v>
+        <v>1.498256553555088</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.396347642464162</v>
@@ -33788,7 +33680,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.503317364201721</v>
+        <v>1.494139508175668</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.169607086844514</v>
@@ -33877,7 +33769,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510932839654069</v>
+        <v>1.504578320220125</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.552770675103333</v>
@@ -33966,7 +33858,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499314279668591</v>
+        <v>1.494672736471384</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.554539350324706</v>
@@ -34055,7 +33947,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.480514761044957</v>
+        <v>1.472388110218129</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.6793162191734</v>
@@ -34144,7 +34036,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.51273350029904</v>
+        <v>1.506614153395862</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.394799190700703</v>
@@ -34233,7 +34125,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533896068520353</v>
+        <v>1.529505394234616</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.647386661659451</v>
@@ -34322,7 +34214,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.543833617827901</v>
+        <v>1.541609887053514</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.60303579314905</v>
@@ -34411,7 +34303,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.539632871991855</v>
+        <v>1.539822699883384</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.49387137858957</v>
@@ -34500,7 +34392,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.552549554683214</v>
+        <v>1.551076019658992</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.678728881643901</v>
@@ -34589,7 +34481,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559203309810962</v>
+        <v>1.559742872045667</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.720925328477921</v>
@@ -34678,7 +34570,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.55944533345086</v>
+        <v>1.559060787661827</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.75393378845922</v>
@@ -34767,7 +34659,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.554724643927102</v>
+        <v>1.554916239949759</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.773415346725823</v>
@@ -34856,7 +34748,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.583921605985262</v>
+        <v>1.579110753736221</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.743910995946172</v>
@@ -34945,7 +34837,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.559269141212307</v>
+        <v>1.559830361449163</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.569978360760962</v>
@@ -35034,7 +34926,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.590046801903815</v>
+        <v>1.592806909906753</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.468549532706099</v>
@@ -35123,7 +35015,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.614033183652624</v>
+        <v>1.609783512461717</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.288019310618878</v>
@@ -35212,7 +35104,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.627361825719638</v>
+        <v>1.618341513100129</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.629252384782046</v>
@@ -35498,7 +35390,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.470547117766919</v>
+        <v>1.490634654784529</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.892764272459897</v>
@@ -35587,7 +35479,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.478150223510055</v>
+        <v>1.496980041324948</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.894494889906996</v>
@@ -35676,7 +35568,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501957812212654</v>
+        <v>1.518883389333802</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.881299528554224</v>
@@ -35765,7 +35657,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493544312226564</v>
+        <v>1.509301253405261</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.907130478357038</v>
@@ -35854,7 +35746,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.513514053832472</v>
+        <v>1.528962196691535</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.889712415582844</v>
@@ -35943,7 +35835,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534012434034362</v>
+        <v>1.548019329526199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.824425026211613</v>
@@ -36032,7 +35924,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.550685206049543</v>
+        <v>1.56306646762713</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.851555929423816</v>
@@ -36121,7 +36013,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564084558423741</v>
+        <v>1.572546154322343</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.863344962128959</v>
@@ -36210,7 +36102,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611513948817984</v>
+        <v>1.589989369865542</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.14547110058787</v>
@@ -36299,7 +36191,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603770798166222</v>
+        <v>1.587125651079477</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.583131435295185</v>
@@ -36388,7 +36280,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.633349643515864</v>
+        <v>1.606924417360101</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.763434438762332</v>
@@ -36477,7 +36369,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636136406362017</v>
+        <v>1.609606786475221</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.75902850052694</v>
@@ -36566,7 +36458,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632763543624368</v>
+        <v>1.605422805193803</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.868270053240406</v>
@@ -36655,7 +36547,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67254711647629</v>
+        <v>1.635200739520274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.960025311467861</v>
@@ -36744,7 +36636,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638730800860855</v>
+        <v>1.6115815270241</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.503167223100511</v>
@@ -36833,7 +36725,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636608449183183</v>
+        <v>1.611576206439583</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.473064329893878</v>
@@ -36922,7 +36814,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.619256556842287</v>
+        <v>1.597273165961336</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.549188321476116</v>
@@ -37011,7 +36903,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611143075746219</v>
+        <v>1.59135450929851</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.552119773206219</v>
@@ -37100,7 +36992,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.637354774932401</v>
+        <v>1.612920219088524</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.606613752787021</v>
@@ -37189,7 +37081,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655266133756337</v>
+        <v>1.628838517836527</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.357799444757087</v>
@@ -37278,7 +37170,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.651406816276043</v>
+        <v>1.620281020240801</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.494505967325344</v>
@@ -37367,7 +37259,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646398267040755</v>
+        <v>1.614811666763055</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.470168258408157</v>
@@ -37456,7 +37348,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642830907540667</v>
+        <v>1.614467764772104</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.499080813928602</v>
@@ -37545,7 +37437,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613564830259923</v>
+        <v>1.594071007836862</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.486470245455736</v>
@@ -37634,7 +37526,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.634144582377051</v>
+        <v>1.608925075176494</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.561018656027748</v>
@@ -37723,7 +37615,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.634695773982425</v>
+        <v>1.61530945458134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.513617280531727</v>
@@ -37812,7 +37704,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.635315976765556</v>
+        <v>1.614773291776722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.556872614236493</v>
@@ -37901,7 +37793,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639016416007642</v>
+        <v>1.621394945412442</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.582635822603393</v>
@@ -37990,7 +37882,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644127430217473</v>
+        <v>1.625933162463238</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.584870841352978</v>
@@ -38079,7 +37971,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.662805635774665</v>
+        <v>1.635767930123852</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.733971897605914</v>
@@ -38168,7 +38060,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.624931203196344</v>
+        <v>1.605200804993148</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.427046293766219</v>
@@ -38257,7 +38149,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654473322645548</v>
+        <v>1.622165006028898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.480563096462809</v>
@@ -38346,7 +38238,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670091926929793</v>
+        <v>1.635267674595422</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404994477740452</v>
@@ -38435,7 +38327,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649628760875727</v>
+        <v>1.619514433534681</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.334356273915275</v>
@@ -38524,7 +38416,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637805834436132</v>
+        <v>1.612142357006112</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.368884620867002</v>
@@ -38613,7 +38505,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644687194731015</v>
+        <v>1.620570674474532</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.330312639342802</v>
@@ -38702,7 +38594,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646607999203686</v>
+        <v>1.622335676793102</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.438421368991338</v>
@@ -38791,7 +38683,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639338598712116</v>
+        <v>1.615913572186479</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.417558815510052</v>
@@ -38880,7 +38772,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662806458673616</v>
+        <v>1.634105253573754</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.326039524475661</v>
@@ -38969,7 +38861,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657954536027182</v>
+        <v>1.632488838102781</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.365900930925074</v>
@@ -39058,7 +38950,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.656422899154393</v>
+        <v>1.628330874416682</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.497011417335274</v>
@@ -39147,7 +39039,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.642722920414767</v>
+        <v>1.618406323911228</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.359120566320175</v>
@@ -39236,7 +39128,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.637209657305922</v>
+        <v>1.615049032324936</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.407301553544821</v>
@@ -39325,7 +39217,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.61824416228923</v>
+        <v>1.591222888459977</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.432488660289807</v>
@@ -39414,7 +39306,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617516661672253</v>
+        <v>1.597113056107689</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.212420534311613</v>
@@ -39503,7 +39395,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.616561802387216</v>
+        <v>1.596948986372557</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.495669602133189</v>
@@ -39592,7 +39484,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6071084579693</v>
+        <v>1.599439290386062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.557287026751643</v>
@@ -39681,7 +39573,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.588556906747462</v>
+        <v>1.57799893943472</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.505086847260691</v>
@@ -39770,7 +39662,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579856104815586</v>
+        <v>1.576395589620563</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.363123593949138</v>
@@ -39859,7 +39751,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.58839961964002</v>
+        <v>1.58380526854765</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.590871378336687</v>
@@ -39948,7 +39840,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.585667565800382</v>
+        <v>1.58033986174888</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.606818742829759</v>
@@ -40037,7 +39929,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.563268110595744</v>
+        <v>1.560002409845064</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.466887144890191</v>
@@ -40126,7 +40018,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.567138530171754</v>
+        <v>1.567593040923416</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.622052344127586</v>
@@ -40215,7 +40107,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566835860701892</v>
+        <v>1.565173167306169</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.608088966215303</v>
@@ -40304,7 +40196,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562817371443189</v>
+        <v>1.56284566677443</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.5872583257891</v>
@@ -40393,7 +40285,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.536727396630065</v>
+        <v>1.54182148675257</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.515220217792466</v>
@@ -40482,7 +40374,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545617774897607</v>
+        <v>1.554555730630363</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.47398475176762</v>
@@ -40571,7 +40463,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.515322737866324</v>
+        <v>1.52502154237247</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.503124770651862</v>
@@ -40660,7 +40552,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53172976028678</v>
+        <v>1.543733889922495</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.341312945147516</v>
@@ -40749,7 +40641,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.537167117214959</v>
+        <v>1.545187430222276</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.292974632927559</v>
@@ -40838,7 +40730,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.550855918649941</v>
+        <v>1.552156524004864</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.429637376457328</v>
